--- a/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Ben Stokes.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Ben Stokes.xlsx
@@ -439,28 +439,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 22 2020</v>
+        <v xml:space="preserve"> Oct 17 2020</v>
       </c>
       <c r="B2" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="F2" t="str">
         <v>Ben Stokes</v>
       </c>
       <c r="G2" t="str">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H2" t="str">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I2" t="str">
         <v>2</v>
@@ -469,33 +469,33 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>93.75</v>
+        <v>78.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 17 2020</v>
+        <v xml:space="preserve"> Oct 22 2020</v>
       </c>
       <c r="B3" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E3" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F3" t="str">
         <v>Ben Stokes</v>
       </c>
       <c r="G3" t="str">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H3" t="str">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I3" t="str">
         <v>2</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>78.94</v>
+        <v>93.75</v>
       </c>
     </row>
   </sheetData>
